--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/85_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/85_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R84b835ea40cd4798"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="Rc624a95273fc4a67"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Rea9bd5aa55294946"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R4995cca4fedd4a9e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="Ra7f40c844d0642aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R293317b4ce1449ca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R30a95a18c35743ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Ra1e8ca238c89473f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -415,6 +415,9 @@
           <c:tx>
             <c:v>Budget vs Actual Variance</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Budget'!$A$2:$A$5</c:f>
@@ -522,6 +525,9 @@
           <c:tx>
             <c:v>Units Sold</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'SalesData'!$A$2:$A$13</c:f>
@@ -624,7 +630,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8edad3d5fbd149d7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcaa975ef16f04128"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -654,7 +660,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc2f63abdd787454e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ec8e8fb70c54a15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +690,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R292e2ace0e724ae0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R932348d57c8b4353"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +720,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd75e31dc07fd4f3e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2acd972de7f84627"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1137,6 +1143,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R26fe652207a54b62"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4b30f66d7b604828"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/85_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/85_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="Ra7f40c844d0642aa"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R293317b4ce1449ca"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R30a95a18c35743ce"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Ra1e8ca238c89473f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R41147005517642a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R53fcdf711f624513"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R918c6bc1dd224cf3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R200059a1b09d44a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -630,7 +630,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcaa975ef16f04128"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfdab606b16e5435b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -660,7 +660,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ec8e8fb70c54a15"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R55a7d084e6794908"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -690,7 +690,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R932348d57c8b4353"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7e47984032de4ffd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -720,7 +720,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2acd972de7f84627"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc953c7e4113b450e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1143,6 +1143,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4b30f66d7b604828"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8bbe63fc7c3240e8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/85_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/85_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R41147005517642a3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R53fcdf711f624513"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R918c6bc1dd224cf3"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R200059a1b09d44a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="Ra274a81de5bd4333"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="Rf1bf6a1505544631"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Re4e8a0977b8945df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R4dd3c8a06b3646b9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -630,7 +630,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfdab606b16e5435b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R64165daba311449e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -660,7 +660,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R55a7d084e6794908"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0a88a795f34e4661"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -690,7 +690,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7e47984032de4ffd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R028b8133ac294797"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -720,7 +720,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc953c7e4113b450e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7fc1b081318f4dcb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1143,6 +1143,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8bbe63fc7c3240e8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R90229fccadde47b5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/85_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/85_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="Ra274a81de5bd4333"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="Rf1bf6a1505544631"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Re4e8a0977b8945df"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R4dd3c8a06b3646b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R927ddea8b28b49bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="Rf0536cf0a46647ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Rc2a3ea29ec2f4b04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R0e8fc53eab184d96"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -630,7 +630,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R64165daba311449e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c03c19837e6421a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -660,7 +660,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0a88a795f34e4661"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51e8948a32ae4add"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -690,7 +690,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R028b8133ac294797"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9fdaa32b753242de"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -720,7 +720,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7fc1b081318f4dcb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra95315a5f0fa45cc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1143,6 +1143,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R90229fccadde47b5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5cd73df58564403c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/85_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/85_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R927ddea8b28b49bb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="Rf0536cf0a46647ee"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Rc2a3ea29ec2f4b04"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R0e8fc53eab184d96"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R9a1ab0600cea494a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="Rb8c20480d7044b80"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Redecf818ba3b444e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R1c497986e00c4744"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -429,6 +429,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -539,6 +547,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -630,7 +646,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c03c19837e6421a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2464d63dafd94dfe"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -660,7 +676,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51e8948a32ae4add"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf2a0c8ee78f648cd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -690,7 +706,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9fdaa32b753242de"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3be9bb2c3d7c4e78"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -720,7 +736,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra95315a5f0fa45cc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R01a5e9b3a4fd43fc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1143,6 +1159,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5cd73df58564403c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R24bf511259db4cbe"/>
 </x:worksheet>
 </file>